--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605191.7706933391</v>
+        <v>689257.6331314588</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>13447633.22396536</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6464931.541053759</v>
+        <v>8059810.836283034</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9334883.938457383</v>
+        <v>8571897.481115699</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="I2" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.2080390958181</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>192.7632183107638</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="U3" t="n">
-        <v>100.9350467767703</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>65.63512030002011</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.15430933923916</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.59469128425545</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>108.0728512656385</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>330.6677928008964</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>88.09081815943104</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>55.38679994221872</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414539</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="I7" t="n">
-        <v>61.36917500886971</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>288.9930561374601</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814216</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>73.07326970418823</v>
       </c>
     </row>
     <row r="10">
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>146.8428862394535</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>144.2957156879721</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>187.6285714858585</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>52.33551640890018</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1531,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>146.8428862394535</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>106.4735778903236</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>50.04052206184355</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>61.26635328439207</v>
       </c>
     </row>
     <row r="15">
@@ -1749,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034764</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.2532214802693</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>61.36917500886968</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>267.3172025050096</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863173</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,7 +1940,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247745</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>20.95866062610926</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>20.9586606261093</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>17.77662268072156</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>402.0503509324763</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,7 +2177,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>32.49022822936902</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>81.46084344268498</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>187.1651269459771</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>48.20942378949506</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2378,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>85.67453763416897</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>107.070495690909</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,19 +2560,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>251.2852794514135</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>93.05478608072319</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>87.93270968653111</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>47.38664856090008</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>17.35112070699398</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>22.48523805799925</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>54.51165059784246</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041362</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>301.724828745163</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>115.0138334144183</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>61.3691750088697</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>168.1158122680962</v>
+        <v>138.8992180371971</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>55.72922319776294</v>
       </c>
       <c r="F37" t="n">
-        <v>37.67709528776616</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>127.5532942524951</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>57.92518451681134</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3591,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>134.9994691657081</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>115.0138334144183</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>20.95866062610916</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>238.8071638495608</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>289.8718464375014</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>9.316113207980084</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>61.36917500886971</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>348.5324979237032</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>57.9251845168145</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>20.95866062610929</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>121.1745395272872</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>949.3392845809428</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="C2" t="n">
-        <v>949.3392845809428</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="D2" t="n">
-        <v>949.3392845809428</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="E2" t="n">
-        <v>949.3392845809428</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="F2" t="n">
-        <v>538.3533797913353</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="G2" t="n">
-        <v>122.3223344947425</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="H2" t="n">
-        <v>122.3223344947425</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>43.36919653809311</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>366.8168396232718</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>669.5878927711869</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>1417.286540135168</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>1761.960612545598</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.630958172449</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S2" t="n">
-        <v>2044.007262161405</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T2" t="n">
-        <v>2044.007262161405</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U2" t="n">
-        <v>2044.007262161405</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="V2" t="n">
-        <v>1712.944374817834</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="W2" t="n">
-        <v>1712.944374817834</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="X2" t="n">
-        <v>1339.478616556755</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="Y2" t="n">
-        <v>949.3392845809428</v>
+        <v>181.8429936158255</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>766.5895633635014</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C3" t="n">
-        <v>592.1365340823744</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>592.1365340823744</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>592.1365340823744</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>445.6019761092594</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>445.6019761092594</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>445.6019761092594</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>445.6019761092594</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>491.7863446767897</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>648.8776114216187</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>906.4287469816065</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>1226.335642450116</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>1569.118166444748</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.477412699315</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>2074.985828260215</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>2136.471078543833</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>2136.471078543833</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T3" t="n">
-        <v>1941.760757017809</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="U3" t="n">
-        <v>1839.806164314</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="V3" t="n">
-        <v>1604.654056082258</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="W3" t="n">
-        <v>1350.416699354056</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="X3" t="n">
-        <v>1142.565199148523</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y3" t="n">
-        <v>934.8049003835695</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388.3019303235355</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>388.3019303235355</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>388.3019303235355</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>388.3019303235355</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>388.3019303235355</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>322.0038290103839</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>171.9636155141766</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>61.70688273934479</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>92.71685897981541</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>185.7706748018945</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>287.1411594927338</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>393.9588065377468</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>472.3091036033668</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>520.2893470406002</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>497.4664265514533</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>388.3019303235355</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="S4" t="n">
-        <v>388.3019303235355</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="T4" t="n">
-        <v>388.3019303235355</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="U4" t="n">
-        <v>388.3019303235355</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="V4" t="n">
-        <v>388.3019303235355</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W4" t="n">
-        <v>388.3019303235355</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X4" t="n">
-        <v>388.3019303235355</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>388.3019303235355</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495403</v>
+        <v>672.2420264262264</v>
       </c>
       <c r="C5" t="n">
-        <v>758.7856865549909</v>
+        <v>672.2420264262264</v>
       </c>
       <c r="D5" t="n">
-        <v>400.5199879482404</v>
+        <v>672.2420264262264</v>
       </c>
       <c r="E5" t="n">
-        <v>66.51211643218339</v>
+        <v>482.8222414097414</v>
       </c>
       <c r="F5" t="n">
-        <v>66.51211643218339</v>
+        <v>393.8416170062757</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>21.03371160678505</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>80.81213159058966</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>649.484525998559</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>734.4611726020274</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>672.2420264262264</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>672.2420264262264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>672.2420264262264</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>672.2420264262264</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>672.2420264262264</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>672.2420264262264</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>672.2420264262264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559524</v>
+        <v>672.2420264262264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>376.7203225197738</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>217.4828675143183</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>70.94830954120332</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>676.9378076264287</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>525.6547321810251</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.5011820977084</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C7" t="n">
-        <v>128.5011820977084</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D7" t="n">
-        <v>128.5011820977084</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E7" t="n">
-        <v>128.5011820977084</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="F7" t="n">
-        <v>128.5011820977084</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="G7" t="n">
-        <v>128.5011820977084</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="H7" t="n">
-        <v>128.5011820977084</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>27.03967056230184</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>42.9899398517073</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025388</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720648</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5011820977084</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V7" t="n">
-        <v>128.5011820977084</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W7" t="n">
-        <v>128.5011820977084</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X7" t="n">
-        <v>128.5011820977084</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y7" t="n">
-        <v>128.5011820977084</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>1782.718007305296</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>1451.655119961725</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136265</v>
+        <v>1098.886464691611</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>725.4207064305313</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>335.2813744547195</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811075</v>
+        <v>767.0731087616919</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0731087616919</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332737</v>
+        <v>458.901244094985</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.36668612187</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.05354253334</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125855</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619335</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297191</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431606</v>
+        <v>1538.125457466753</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199864</v>
+        <v>1302.97334923501</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471662</v>
+        <v>1048.735992506809</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266129</v>
+        <v>840.8844923012759</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>767.0731087616919</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.8870058181845</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="C10" t="n">
-        <v>920.8870058181845</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>388.3019303235355</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>189.122444707762</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181845</v>
+        <v>43.36919653809311</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1308.370295943747</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C11" t="n">
-        <v>939.4077790033357</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D11" t="n">
-        <v>749.8839694216604</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E11" t="n">
-        <v>364.0957168234162</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F11" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5057,19 +5059,19 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
         <v>2755.806928794324</v>
@@ -5078,13 +5080,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>2019.11122819185</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5117,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C13" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="D13" t="n">
-        <v>417.6040489720648</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>417.6040489720648</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>417.6040489720648</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
         <v>310.0549803959803</v>
@@ -5194,10 +5196,10 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372932</v>
@@ -5221,28 +5223,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T13" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U13" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V13" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W13" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X13" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y13" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1712.341567565138</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C14" t="n">
-        <v>1343.379050624726</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>985.1133520179758</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5306,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2862.546497866151</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2489.080739605071</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>2098.94140762926</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="15">
@@ -5358,43 +5360,43 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>770.7703664058488</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>622.8572728234557</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>475.9673253255453</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5458,28 +5460,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181845</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181845</v>
+        <v>128.5011820977084</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1491.569348694472</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C17" t="n">
-        <v>1491.569348694472</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1133.303650087722</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>747.5153974894774</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>336.5294926998699</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.774278995485</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.308520734406</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.169188758594</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,31 +5612,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501176</v>
@@ -5647,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.68248070098065</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962284</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588481</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O19" t="n">
         <v>809.0152357068853</v>
@@ -5716,7 +5718,7 @@
         <v>87.68248070098065</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.68248070098065</v>
+        <v>66.51211643218338</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1285.591601078694</v>
+        <v>1638.360256348807</v>
       </c>
       <c r="C20" t="n">
-        <v>1267.635416552713</v>
+        <v>1269.397739408395</v>
       </c>
       <c r="D20" t="n">
-        <v>909.3697179459625</v>
+        <v>1269.397739408395</v>
       </c>
       <c r="E20" t="n">
-        <v>523.5814653477182</v>
+        <v>883.6094868101509</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>472.6235820205433</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U20" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="V20" t="n">
-        <v>2788.565186649822</v>
+        <v>2788.56518664982</v>
       </c>
       <c r="W20" t="n">
-        <v>2435.796531379708</v>
+        <v>2788.56518664982</v>
       </c>
       <c r="X20" t="n">
-        <v>2062.330773118628</v>
+        <v>2415.09942838874</v>
       </c>
       <c r="Y20" t="n">
-        <v>1672.191441142816</v>
+        <v>2024.960096412929</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5850,31 +5852,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218342</v>
+        <v>511.2489900899275</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>511.2489900899275</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>511.2489900899275</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962284</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588481</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O22" t="n">
         <v>809.0152357068853</v>
@@ -5941,19 +5943,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U22" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V22" t="n">
-        <v>583.9188373671614</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W22" t="n">
-        <v>294.5016673302007</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X22" t="n">
-        <v>66.51211643218342</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218342</v>
+        <v>692.8974549201672</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2148.434869859536</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C23" t="n">
-        <v>1779.472352919124</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D23" t="n">
-        <v>1421.206654312374</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993392</v>
+        <v>3276.909433943012</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267229</v>
+        <v>3023.378957216848</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923658</v>
+        <v>2692.316069873278</v>
       </c>
       <c r="W23" t="n">
-        <v>2535.034709923658</v>
+        <v>2339.547414603163</v>
       </c>
       <c r="X23" t="n">
-        <v>2535.034709923658</v>
+        <v>1966.081656342083</v>
       </c>
       <c r="Y23" t="n">
-        <v>2535.034709923658</v>
+        <v>1575.942324366272</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6062,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6078,7 +6080,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
@@ -6121,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>234.2149530574645</v>
+        <v>472.1048757766371</v>
       </c>
       <c r="C25" t="n">
-        <v>234.2149530574645</v>
+        <v>303.1686928487302</v>
       </c>
       <c r="D25" t="n">
-        <v>234.2149530574645</v>
+        <v>153.0520534363945</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574645</v>
+        <v>153.0520534363945</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>153.0520534363945</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>153.0520534363945</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962284</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588481</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O25" t="n">
         <v>809.0152357068853</v>
@@ -6175,22 +6177,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T25" t="n">
-        <v>812.7349899687815</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U25" t="n">
-        <v>523.6321230944251</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V25" t="n">
-        <v>523.6321230944251</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W25" t="n">
-        <v>234.2149530574645</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X25" t="n">
-        <v>234.2149530574645</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="Y25" t="n">
-        <v>234.2149530574645</v>
+        <v>472.1048757766371</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1844.338003964585</v>
+        <v>1144.044138553435</v>
       </c>
       <c r="C26" t="n">
-        <v>1475.375487024173</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="D26" t="n">
-        <v>1117.109788417423</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E26" t="n">
-        <v>731.3215358191783</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F26" t="n">
-        <v>320.3356310295707</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218338</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912087</v>
@@ -6230,7 +6232,7 @@
         <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
@@ -6239,37 +6241,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609169</v>
+        <v>3231.611088194298</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609169</v>
+        <v>2978.080611468134</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.542934265598</v>
+        <v>2647.017724124563</v>
       </c>
       <c r="W26" t="n">
-        <v>2994.542934265598</v>
+        <v>2294.249068854449</v>
       </c>
       <c r="X26" t="n">
-        <v>2621.077176004518</v>
+        <v>1920.783310593369</v>
       </c>
       <c r="Y26" t="n">
-        <v>2230.937844028706</v>
+        <v>1530.643978617557</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218338</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218338</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218338</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218338</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218338</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218338</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218338</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218338</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J28" t="n">
-        <v>78.3348699696228</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372931</v>
+        <v>2581.364540028278</v>
       </c>
       <c r="L28" t="n">
-        <v>332.3555681596503</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M28" t="n">
-        <v>499.788049458848</v>
+        <v>2904.506865249833</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886955</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068853</v>
+        <v>3213.73405149787</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596438</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S28" t="n">
-        <v>832.0660869429006</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T28" t="n">
-        <v>610.2994715124266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U28" t="n">
-        <v>321.1966046380703</v>
+        <v>3036.502954734813</v>
       </c>
       <c r="V28" t="n">
-        <v>66.51211643218338</v>
+        <v>3036.502954734813</v>
       </c>
       <c r="W28" t="n">
-        <v>66.51211643218338</v>
+        <v>2747.085784697852</v>
       </c>
       <c r="X28" t="n">
-        <v>66.51211643218338</v>
+        <v>2519.096233799835</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.51211643218338</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2047.583838282732</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>3197.788768583745</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X29" t="n">
-        <v>2824.323010322666</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y29" t="n">
-        <v>2434.183678346854</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="30">
@@ -6534,19 +6536,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>121.5743897633374</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="C31" t="n">
-        <v>121.5743897633374</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D31" t="n">
-        <v>121.5743897633374</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E31" t="n">
-        <v>121.5743897633374</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F31" t="n">
-        <v>121.5743897633374</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G31" t="n">
-        <v>121.5743897633374</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596504</v>
@@ -6652,19 +6654,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U31" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V31" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W31" t="n">
-        <v>342.3669689068675</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X31" t="n">
-        <v>342.3669689068675</v>
+        <v>631.469835781224</v>
       </c>
       <c r="Y31" t="n">
-        <v>121.5743897633374</v>
+        <v>631.469835781224</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2303.170539913434</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>709.6157678926356</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>298.6298631030281</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6710,16 +6712,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
         <v>3325.60582160917</v>
@@ -6734,16 +6736,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>2994.542934265599</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W32" t="n">
-        <v>2689.770379977556</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X32" t="n">
-        <v>2689.770379977556</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y32" t="n">
-        <v>2689.770379977556</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986293</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962283</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.364540028278</v>
       </c>
       <c r="L34" t="n">
-        <v>332.3555681596504</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588481</v>
+        <v>2904.506865249833</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886956</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068853</v>
+        <v>3213.73405149787</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596438</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>831.0565485757124</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S34" t="n">
-        <v>639.3706644025388</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T34" t="n">
-        <v>417.6040489720648</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U34" t="n">
-        <v>128.5011820977084</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V34" t="n">
-        <v>66.5121164321834</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W34" t="n">
-        <v>66.5121164321834</v>
+        <v>3036.188651572209</v>
       </c>
       <c r="X34" t="n">
-        <v>66.5121164321834</v>
+        <v>2808.199100674192</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.5121164321834</v>
+        <v>2587.406521530662</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2175.400891308157</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C35" t="n">
-        <v>1806.438374367745</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="D35" t="n">
-        <v>1448.172675760994</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.38442316275</v>
+        <v>1032.872711818408</v>
       </c>
       <c r="F35" t="n">
-        <v>651.3985183731427</v>
+        <v>621.8868070288001</v>
       </c>
       <c r="G35" t="n">
-        <v>236.3260682181391</v>
+        <v>206.8143568737966</v>
       </c>
       <c r="H35" t="n">
         <v>66.5121164321834</v>
@@ -6935,25 +6937,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6965,22 +6967,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W35" t="n">
-        <v>3325.60582160917</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X35" t="n">
-        <v>2952.14006334809</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.000731372279</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986293</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>739.2385409879448</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="C37" t="n">
-        <v>570.3023580600379</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="D37" t="n">
-        <v>420.1857186477022</v>
+        <v>680.9399091633767</v>
       </c>
       <c r="E37" t="n">
-        <v>272.2726250653091</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
         <v>66.5121164321834</v>
@@ -7117,28 +7119,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R37" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="U37" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="V37" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="X37" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
     </row>
     <row r="38">
@@ -7157,67 +7159,67 @@
         <v>452.3003690304276</v>
       </c>
       <c r="E38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794323</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450752</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919558</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943746</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
         <v>312.3844025601599</v>
@@ -7245,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7272,31 +7274,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7330,49 +7332,49 @@
         <v>2471.230932223169</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760608</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028278</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950636</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249833</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279681</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.73405149787</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250629</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.60582160917</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V40" t="n">
-        <v>3209.430232301676</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="W40" t="n">
-        <v>2920.013062264716</v>
+        <v>2492.401296491967</v>
       </c>
       <c r="X40" t="n">
-        <v>2692.023511366699</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y40" t="n">
         <v>2471.230932223169</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2175.400891308156</v>
+        <v>1822.632236038045</v>
       </c>
       <c r="C41" t="n">
-        <v>1806.438374367744</v>
+        <v>1453.669719097633</v>
       </c>
       <c r="D41" t="n">
-        <v>1448.172675760994</v>
+        <v>1453.669719097633</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.38442316275</v>
+        <v>1067.881466499389</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>656.8955617097813</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W41" t="n">
-        <v>3325.60582160917</v>
+        <v>2972.837166339058</v>
       </c>
       <c r="X41" t="n">
-        <v>2952.14006334809</v>
+        <v>2599.371408077978</v>
       </c>
       <c r="Y41" t="n">
-        <v>2562.000731372278</v>
+        <v>2209.232076102167</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N42" t="n">
         <v>1685.951113992583</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218339</v>
+        <v>321.1611025578272</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218339</v>
+        <v>321.1611025578272</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218339</v>
+        <v>321.1611025578272</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218339</v>
+        <v>173.2480089754341</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218339</v>
+        <v>173.2480089754341</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>173.2480089754341</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962296</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596438</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757138</v>
       </c>
       <c r="S43" t="n">
-        <v>639.3706644025388</v>
+        <v>831.0565485757138</v>
       </c>
       <c r="T43" t="n">
-        <v>417.6040489720648</v>
+        <v>831.0565485757138</v>
       </c>
       <c r="U43" t="n">
-        <v>128.5011820977084</v>
+        <v>541.9536817013574</v>
       </c>
       <c r="V43" t="n">
-        <v>66.51211643218339</v>
+        <v>541.9536817013574</v>
       </c>
       <c r="W43" t="n">
-        <v>66.51211643218339</v>
+        <v>541.9536817013574</v>
       </c>
       <c r="X43" t="n">
-        <v>66.51211643218339</v>
+        <v>541.9536817013574</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.51211643218339</v>
+        <v>321.1611025578272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1942.567517572958</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C44" t="n">
-        <v>1573.605000632547</v>
+        <v>810.5660676371782</v>
       </c>
       <c r="D44" t="n">
-        <v>1215.339302025796</v>
+        <v>452.3003690304277</v>
       </c>
       <c r="E44" t="n">
-        <v>829.5510494275518</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="F44" t="n">
-        <v>418.5651446379442</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609174</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609174</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883006</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V44" t="n">
-        <v>3072.075344883006</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W44" t="n">
-        <v>2719.306689612892</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X44" t="n">
-        <v>2719.306689612892</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y44" t="n">
-        <v>2329.16735763708</v>
+        <v>1566.128424641712</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.68248070098065</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962299</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372935</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596438</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877118</v>
       </c>
       <c r="U46" t="n">
-        <v>631.7841389438281</v>
+        <v>576.7218656126743</v>
       </c>
       <c r="V46" t="n">
-        <v>377.0996507379413</v>
+        <v>576.7218656126743</v>
       </c>
       <c r="W46" t="n">
-        <v>87.68248070098065</v>
+        <v>287.3046955757136</v>
       </c>
       <c r="X46" t="n">
-        <v>87.68248070098065</v>
+        <v>287.3046955757136</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.68248070098065</v>
+        <v>66.51211643218348</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8392,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -22556,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>304.326804756183</v>
+        <v>151.7212889301275</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>7.605269613432284</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0710926941158</v>
+        <v>63.64367339871021</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510929</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22635,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5072338470352</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>94.50081326185511</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2994675790488</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>30.23706061590647</v>
       </c>
       <c r="U3" t="n">
-        <v>124.8855271912982</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>45.27499998310515</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>18.24739803715735</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>100.8163808109117</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>80.60642335625573</v>
       </c>
       <c r="S4" t="n">
-        <v>197.1876907596158</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>51.26257727136539</v>
+        <v>194.4047829059416</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>318.7852275822804</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>129.3682389399021</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22875,16 +22877,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>80.77698942355661</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22914,22 +22916,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>101.2177245773849</v>
       </c>
       <c r="I7" t="n">
-        <v>34.98324540096841</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>93.74078552602043</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,19 +23074,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803269</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23148,10 +23150,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23166,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>132.6094260731161</v>
       </c>
     </row>
     <row r="10">
@@ -23182,22 +23184,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>1.772586778758807</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>77.07210304633045</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>167.0544701348244</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>317.3955842695689</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23419,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>1.772586778758807</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>59.55223036870458</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>331.8898480104182</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>324.9715853716615</v>
       </c>
     </row>
     <row r="15">
@@ -23637,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>1.772586778758892</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>190.7684683149583</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>143.6045231484438</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,13 +23791,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>168.0688818921518</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>146.2881604725186</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>197.6259927259855</v>
       </c>
     </row>
     <row r="20">
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>347.496269090286</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>8.871374720977144</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24029,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>113.9437344172001</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>204.7509947629279</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>194.7652431262846</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>155.7085463501251</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24266,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>59.08047728015181</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -24415,22 +24417,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>112.4784535852602</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24446,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>159.63644620204</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -24494,16 +24496,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>110.863184058897</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>101.8363156449108</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1980047911947</v>
       </c>
     </row>
     <row r="29">
@@ -24698,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>331.889848010419</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>157.346742123938</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>90.24336431647832</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>181.1251564493172</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -24974,16 +24976,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>47.51613997225002</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>64.81814676751895</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>190.7684683149583</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>126.4919521192243</v>
+        <v>155.7085463501234</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -25205,16 +25207,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>90.70473944880624</v>
       </c>
       <c r="F37" t="n">
-        <v>107.7439527351651</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>255.1805474109855</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>145.9927856228088</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>137.1238099094097</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>204.750994762928</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>168.0688818921507</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>121.049879215952</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25803,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>135.4389017063407</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>190.7684683149583</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>62.38922772975025</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>145.9927856228056</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>146.2881604725185</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>165.0372986783257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>645633.2065222077</v>
+        <v>431136.2197180328</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>822602.4434218738</v>
+        <v>419343.5156304885</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>822602.443421874</v>
+        <v>648745.516991545</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218741</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822602.4434218741</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218736</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822602.4434218741</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822602.4434218741</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218741</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822602.4434218737</v>
+        <v>822602.4434218742</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>258253.282608883</v>
+        <v>170793.1040769948</v>
       </c>
       <c r="C2" t="n">
-        <v>329040.9773687492</v>
+        <v>167423.7600519821</v>
       </c>
       <c r="D2" t="n">
-        <v>329040.9773687491</v>
+        <v>259142.5141715507</v>
       </c>
       <c r="E2" t="n">
         <v>329040.9773687491</v>
       </c>
       <c r="F2" t="n">
+        <v>329040.9773687491</v>
+      </c>
+      <c r="G2" t="n">
+        <v>329040.9773687492</v>
+      </c>
+      <c r="H2" t="n">
         <v>329040.9773687493</v>
       </c>
-      <c r="G2" t="n">
-        <v>329040.977368749</v>
-      </c>
-      <c r="H2" t="n">
-        <v>329040.9773687491</v>
-      </c>
       <c r="I2" t="n">
+        <v>329040.9773687492</v>
+      </c>
+      <c r="J2" t="n">
         <v>329040.9773687493</v>
       </c>
-      <c r="J2" t="n">
-        <v>329040.9773687491</v>
-      </c>
       <c r="K2" t="n">
+        <v>329040.9773687492</v>
+      </c>
+      <c r="L2" t="n">
+        <v>329040.9773687492</v>
+      </c>
+      <c r="M2" t="n">
         <v>329040.9773687493</v>
       </c>
-      <c r="L2" t="n">
-        <v>329040.9773687491</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>329040.9773687492</v>
       </c>
-      <c r="N2" t="n">
-        <v>329040.977368749</v>
-      </c>
       <c r="O2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687494</v>
       </c>
       <c r="P2" t="n">
-        <v>329040.9773687491</v>
+        <v>329040.9773687495</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1004321.885230094</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>308422.1921421485</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.5249487666</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>276030.745766909</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>141841.1257376603</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>74453.0875912779</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.37813127038</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>72091.35261608599</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.620387699105777e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384.3219252469141</v>
+        <v>4291.259643618057</v>
       </c>
       <c r="C4" t="n">
+        <v>921.9156186053517</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1273.553487914726</v>
+      </c>
+      <c r="E4" t="n">
         <v>584.646989006123</v>
-      </c>
-      <c r="D4" t="n">
-        <v>584.646989006123</v>
-      </c>
-      <c r="E4" t="n">
-        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
         <v>584.646989006123</v>
@@ -26448,16 +26450,16 @@
         <v>584.646989006123</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061422</v>
+        <v>584.646989006123</v>
       </c>
       <c r="N4" t="n">
         <v>584.646989006123</v>
       </c>
       <c r="O4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061235</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061229</v>
+        <v>584.6469890061235</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>56985.80041161359</v>
+      </c>
+      <c r="C5" t="n">
+        <v>56985.80041161359</v>
+      </c>
+      <c r="D5" t="n">
         <v>85199.0818558723</v>
       </c>
-      <c r="C5" t="n">
-        <v>107933.9405613933</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
-      </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.34056139327</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139336</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831652.0064023305</v>
+        <v>-481840.8584990825</v>
       </c>
       <c r="C6" t="n">
-        <v>-87899.80232379875</v>
+        <v>109516.0440217631</v>
       </c>
       <c r="D6" t="n">
-        <v>220522.3898183497</v>
+        <v>-198888.6461210029</v>
       </c>
       <c r="E6" t="n">
+        <v>-21880.75594855934</v>
+      </c>
+      <c r="F6" t="n">
         <v>254149.9898183497</v>
       </c>
-      <c r="F6" t="n">
-        <v>254149.9898183498</v>
-      </c>
       <c r="G6" t="n">
-        <v>254149.9898183495</v>
+        <v>254149.9898183499</v>
       </c>
       <c r="H6" t="n">
-        <v>254149.9898183497</v>
+        <v>254149.9898183499</v>
       </c>
       <c r="I6" t="n">
         <v>254149.9898183498</v>
       </c>
       <c r="J6" t="n">
-        <v>112308.8640806894</v>
+        <v>205085.0450898051</v>
       </c>
       <c r="K6" t="n">
-        <v>179696.902227072</v>
+        <v>254149.9898183498</v>
       </c>
       <c r="L6" t="n">
-        <v>254149.9898183497</v>
+        <v>164406.6116870795</v>
       </c>
       <c r="M6" t="n">
+        <v>182058.6372022639</v>
+      </c>
+      <c r="N6" t="n">
         <v>254149.9898183498</v>
       </c>
-      <c r="N6" t="n">
-        <v>254149.9898183497</v>
-      </c>
       <c r="O6" t="n">
-        <v>254149.9898183498</v>
+        <v>254149.9898183495</v>
       </c>
       <c r="P6" t="n">
-        <v>254149.9898183497</v>
+        <v>254149.98981835</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>548.4699409129048</v>
+      </c>
+      <c r="C3" t="n">
+        <v>548.4699409129048</v>
+      </c>
+      <c r="D3" t="n">
         <v>853.7106645376848</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26774,10 +26776,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.5255871663201</v>
+      </c>
+      <c r="C4" t="n">
+        <v>187.5255871663202</v>
+      </c>
+      <c r="D4" t="n">
         <v>542.1149567261639</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022934</v>
       </c>
     </row>
   </sheetData>
@@ -26957,17 +26959,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376848</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>305.24072362478</v>
+      </c>
+      <c r="E3" t="n">
         <v>236.0660360556133</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261639</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>289.2864986761285</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>354.5893695598437</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>289.2864986761286</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261634</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>354.5893695598436</v>
+      </c>
+      <c r="M4" t="n">
         <v>289.2864986761288</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261639</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>289.2864986761285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598437</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761286</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.432002671508278</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>35.14799735958416</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>132.312282993323</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>291.286936740926</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>436.5636098258715</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5957615840431</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>602.6296390934783</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>612.3808166839013</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>578.2538401190908</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>493.5262741662302</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6176784928398</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>78.20676087699496</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>15.02359169452749</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.836283316175398</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>17.73463097464134</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>63.2229124209512</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>173.4885040076063</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>296.5194861913579</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>398.7070419616801</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>465.2723121730381</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>477.5866858152847</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>436.8985133884509</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>350.6495746475634</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>234.3999545349508</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>114.0106430867497</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>34.10815721053861</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>7.40151038405785</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.539478247526972</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>13.68736114619436</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>46.29630948017478</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>178.8593818490428</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>228.8784296368737</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>241.3202129282508</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>235.582157642014</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>217.5982526595398</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>186.1928964099894</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.9103103451904</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>69.22054011153094</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>26.82890727735641</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>6.577770693978881</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31765,7 +31767,7 @@
         <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623199</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
         <v>769.2673490574992</v>
@@ -32078,7 +32080,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138795</v>
@@ -32257,7 +32259,7 @@
         <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
         <v>99.83230779806949</v>
@@ -32488,7 +32490,7 @@
         <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746405</v>
       </c>
       <c r="Q20" t="n">
         <v>473.0999946781689</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32798,13 +32800,13 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987486</v>
@@ -33029,7 +33031,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233474</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33272,7 +33274,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O30" t="n">
         <v>557.7086478970249</v>
@@ -33512,7 +33514,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
         <v>447.6103584002926</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353167</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33916,7 +33918,7 @@
         <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806949</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.928301823346</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987471</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2410322142397</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>216.4737587808909</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8293466140559</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>372.2834058662056</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>382.9677530873104</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>348.155628697404</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>262.2932784109606</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.3119886183904</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.65087734093964</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.6780472169989</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>260.1526621818059</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>323.1382782510198</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>346.2449737319514</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>294.3022689440064</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>216.6751672332332</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.41818044892926</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>49.84612367850738</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>93.99375335563545</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>102.3944289806457</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>107.8966131767808</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>79.14171420769699</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
-        <v>48.46489236084179</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,7 +35415,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302265</v>
@@ -35726,7 +35728,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340053</v>
@@ -35905,7 +35907,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36136,7 +36138,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219371</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037194</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,13 +36448,13 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127271</v>
@@ -36677,7 +36679,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013291</v>
@@ -36911,7 +36913,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36920,7 +36922,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525805</v>
@@ -37160,7 +37162,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
@@ -37385,7 +37387,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609577</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37564,7 +37566,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013277</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127256</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
